--- a/document/Thông tin triển khai CKP.xlsx
+++ b/document/Thông tin triển khai CKP.xlsx
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,10 +483,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -503,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
